--- a/docs/ST3a/ST3a_30.07.24v_output.xlsx
+++ b/docs/ST3a/ST3a_30.07.24v_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,328 +505,389 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731319824.5929885</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731319826.0375001</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731319824.5929885.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731319826.0375001.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>132.68</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>132.67</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.01000000000001933</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731319836.5794294</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731319837.764731</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731319836.5794294.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731319837.764731.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>6794.5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>6810</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>15.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731319838.849174</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731319841.258122</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731319838.849174.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731319841.258122.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>6810.5</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>6808</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-2.5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731319845.100423</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731319848.3198974</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731319845.100423.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731319848.3198974.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>510.8</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>512.05</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-1.249999999999943</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731319857.2776966</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731319858.512615</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731319857.2776966.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731319858.512615.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>1046.2</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>1047.2</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731319858.5275748</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731319858.5275748.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731319858.5275748.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>1047.2</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>1047.2</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -819,597 +895,714 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731319865.870366</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731319866.1785407</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731319865.870366.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731319866.1785407.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>127.38</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>127.56</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731319866.1925356</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731319867.5377798</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731319866.1925356.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731319867.5377798.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>127.56</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>127.48</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731319867.5826607</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731319867.5826607.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731319867.5826607.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>127.42</v>
       </c>
-      <c r="J11" t="n">
-        <v>127.42</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
+      <c r="L11" t="n">
+        <v>127.38</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.04000000000000625</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731319869.2096386</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731319872.8197274</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731319869.2096386.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731319872.8197274.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>165.82</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>166.54</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.7199999999999989</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731319873.8503506</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731319873.8503506.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731319873.8503506.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>166.36</v>
       </c>
-      <c r="J13" t="n">
-        <v>166.36</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
+      <c r="L13" t="n">
+        <v>165.68</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.6800000000000068</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731319898.3386338</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731319898.8665898</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731319898.3386338.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731319898.8665898.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>60.59</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>60.62</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.02999999999999403</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731319907.835903</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731319907.835903.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731319907.835903.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>141.36</v>
       </c>
-      <c r="J15" t="n">
-        <v>141.36</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
+      <c r="L15" t="n">
+        <v>140.78</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.5800000000000125</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731319917.6782832</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731319918.3323138</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731319917.6782832.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731319918.3323138.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>53.96</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>53.83</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.1300000000000026</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731319918.3482711</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731319918.7732983</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731319918.3482711.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731319918.7732983.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>53.83</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>53.88</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.05000000000000426</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731319925.955973</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731319926.9967954</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731319925.955973.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731319926.9967954.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>375.18</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>374</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>1.180000000000007</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731319929.3518002</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731319929.3518002.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731319929.3518002.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>371.99</v>
       </c>
-      <c r="J19" t="n">
-        <v>371.99</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
+      <c r="L19" t="n">
+        <v>371.92</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.06999999999999318</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731319938.408038</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731319938.408038.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731319938.408038.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>3020.6</v>
       </c>
-      <c r="J20" t="n">
-        <v>3020.6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
+      <c r="L20" t="n">
+        <v>3018.15</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-2.449999999999818</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731319957.363532</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731319957.6556501</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/TATN1731319957.363532.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/TATN1731319957.6556501.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>640.4</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>640.3</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -1423,7 +1616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1447,6 +1640,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1455,11 +1663,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2600000000000051</v>
+        <v>0.2199999999999989</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.07333333333333296</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1473,6 +1690,15 @@
       <c r="C3" t="n">
         <v>2</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.09000000000000341</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1481,11 +1707,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.180000000000007</v>
+        <v>1.25</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1499,6 +1734,15 @@
       <c r="C5" t="n">
         <v>2</v>
       </c>
+      <c r="D5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1507,11 +1751,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7199999999999989</v>
+        <v>0.03999999999999204</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.01999999999999996</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1525,6 +1778,15 @@
       <c r="C7" t="n">
         <v>2</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1538,6 +1800,15 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.02999999999999403</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1551,6 +1822,15 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.01000000000001933</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1559,11 +1839,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-2.449999999999818</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>-2.449999999999818</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1577,6 +1866,15 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>-1.249999999999943</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.24</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1585,11 +1883,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0.5800000000000125</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.5800000000000125</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.41</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1603,6 +1910,15 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1616,6 +1932,11 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
